--- a/doc/RaportZTestow/F_0.5_Cr_0.5_L_5.xlsx
+++ b/doc/RaportZTestow/F_0.5_Cr_0.5_L_5.xlsx
@@ -970,24 +970,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81836672"/>
-        <c:axId val="83497344"/>
+        <c:axId val="96415104"/>
+        <c:axId val="119673984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81836672"/>
+        <c:axId val="96415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83497344"/>
+        <c:crossAx val="119673984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83497344"/>
+        <c:axId val="119673984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -996,7 +996,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81836672"/>
+        <c:crossAx val="96415104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1009,7 +1009,82 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Porównanie algorytmów</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Our</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Classic</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1019,16 +1094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1042,6 +1117,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1335,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,7 +1452,7 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickTop="1">
+    <row r="1" spans="1:16" ht="15.75" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1484,7 @@
       </c>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
@@ -1419,7 +1524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1464,8 +1569,16 @@
       <c r="N3" s="11">
         <v>4.1802141619996801E-12</v>
       </c>
+      <c r="O3">
+        <f>IF(ABS(C3-B3)&lt;ABS(D3-B3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(ABS(C3-B3)&gt;ABS(D3-B3),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1510,8 +1623,16 @@
       <c r="N4" s="20">
         <v>2028.47181331004</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O30" si="2">IF(ABS(C4-B4)&lt;ABS(D4-B4),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P30" si="3">IF(ABS(C4-B4)&gt;ABS(D4-B4),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1556,8 +1677,16 @@
       <c r="N5" s="2">
         <v>15.901702801454499</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1602,8 +1731,16 @@
       <c r="N6" s="20">
         <v>74.257296225814699</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -1648,8 +1785,16 @@
       <c r="N7" s="2">
         <v>1.2674891697079101E-9</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1694,8 +1839,16 @@
       <c r="N8" s="20">
         <v>0.101247511692063</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1740,8 +1893,16 @@
       <c r="N9" s="2">
         <v>1.36010442175406E-2</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1786,8 +1947,16 @@
       <c r="N10" s="20">
         <v>1.0182485403619701</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
@@ -1832,8 +2001,16 @@
       <c r="N11" s="2">
         <v>0.22661376394923599</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1878,8 +2055,16 @@
       <c r="N12" s="20">
         <v>1.0300212513334499E-2</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +2109,16 @@
       <c r="N13" s="2">
         <v>6.0263160759081898E-3</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1970,8 +2163,16 @@
       <c r="N14" s="20">
         <v>0.122107819929863</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
@@ -2016,8 +2217,16 @@
       <c r="N15" s="2">
         <v>2.2499031127770399</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -2062,8 +2271,16 @@
       <c r="N16" s="20">
         <v>4.3664784148390998</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
@@ -2108,8 +2325,16 @@
       <c r="N17" s="2">
         <v>67.573214371444607</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:16">
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
@@ -2154,8 +2379,16 @@
       <c r="N18" s="20">
         <v>8.6398121362077501E-2</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
@@ -2200,8 +2433,16 @@
       <c r="N19" s="2">
         <v>0.16720543530109999</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:16">
       <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
@@ -2246,8 +2487,16 @@
       <c r="N20" s="20">
         <v>3.70871049045771</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:16">
       <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
@@ -2292,8 +2541,16 @@
       <c r="N21" s="2">
         <v>3.4323369798534998E-3</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="A22" s="15" t="s">
         <v>25</v>
       </c>
@@ -2338,8 +2595,16 @@
       <c r="N22" s="20">
         <v>8.6365284315333093E-2</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -2384,8 +2649,16 @@
       <c r="N23" s="2">
         <v>96.397646138991007</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
@@ -2430,8 +2703,16 @@
       <c r="N24" s="20">
         <v>66.297063142566103</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
@@ -2476,8 +2757,16 @@
       <c r="N25" s="2">
         <v>30.446068357695399</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26" s="15" t="s">
         <v>29</v>
       </c>
@@ -2522,8 +2811,16 @@
       <c r="N26" s="20">
         <v>5.89459912907581</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
@@ -2568,8 +2865,16 @@
       <c r="N27" s="2">
         <v>0.78685646638602003</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="A28" s="15" t="s">
         <v>31</v>
       </c>
@@ -2614,8 +2919,16 @@
       <c r="N28" s="20">
         <v>4.8364258157112401</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
@@ -2660,8 +2973,16 @@
       <c r="N29" s="2">
         <v>6.8803320773475498</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>33</v>
       </c>
@@ -2706,8 +3027,25 @@
       <c r="N30" s="26">
         <v>8.3421852262865308E-6</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickTop="1"/>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1">
+      <c r="O31">
+        <f>SUM(O3:O30)</f>
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <f>SUM(P3:P30)</f>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:H1"/>
